--- a/trunk/Tools/price-demand curve.xlsx
+++ b/trunk/Tools/price-demand curve.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="US Chips" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="24">
   <si>
     <t>X0</t>
   </si>
@@ -433,9 +433,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -443,6 +440,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -945,13 +945,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1">
       <c r="A4" s="3" t="s">
@@ -971,7 +971,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -987,7 +987,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5">
@@ -1003,7 +1003,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5">
@@ -1019,7 +1019,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5">
@@ -1035,7 +1035,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5">
@@ -1051,7 +1051,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5">
@@ -1067,7 +1067,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="5">
@@ -1083,7 +1083,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5">
@@ -1099,7 +1099,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5">
@@ -1115,7 +1115,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5">
@@ -1133,7 +1133,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5">
@@ -1149,7 +1149,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5">
@@ -1165,7 +1165,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="5">
@@ -1183,7 +1183,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="5">
@@ -1199,7 +1199,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="5">
@@ -1215,7 +1215,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="5">
@@ -1231,7 +1231,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5">
@@ -1247,7 +1247,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="5">
@@ -1263,7 +1263,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="5">
@@ -1279,7 +1279,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5">
@@ -1295,7 +1295,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="5">
@@ -1311,7 +1311,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="5">
@@ -1327,7 +1327,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="5">
@@ -1343,7 +1343,7 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="5">
@@ -1359,7 +1359,9 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1598,7 +1600,6 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1609,10 +1610,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1627,13 +1629,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="17" thickTop="1">
       <c r="A4" s="3" t="s">
@@ -1652,8 +1654,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" hidden="1">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -1669,8 +1671,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -1684,8 +1686,8 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" hidden="1">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5">
@@ -1699,8 +1701,8 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5" hidden="1">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5">
@@ -1716,8 +1718,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5" hidden="1">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5">
@@ -1731,8 +1733,8 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5" hidden="1">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5">
@@ -1746,8 +1748,8 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5" hidden="1">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5">
@@ -1761,8 +1763,8 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" hidden="1">
+      <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5">
@@ -1776,8 +1778,8 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5" hidden="1">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="5">
@@ -1791,8 +1793,8 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5" hidden="1">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5">
@@ -1806,8 +1808,8 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5" hidden="1">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="5">
@@ -1821,8 +1823,8 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5" hidden="1">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="5">
@@ -1836,8 +1838,8 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5" hidden="1">
+      <c r="A17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="5">
@@ -1853,8 +1855,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5" hidden="1">
+      <c r="A18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="5">
@@ -1869,7 +1871,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -1884,7 +1886,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
@@ -1899,7 +1901,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="8">
@@ -1914,7 +1916,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="8">
@@ -1931,7 +1933,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="8">
@@ -1946,7 +1948,7 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="5">
@@ -1961,7 +1963,7 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="5">
@@ -1978,22 +1980,22 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>225</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>5980</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>8</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="8">
@@ -2010,7 +2012,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="8">
@@ -2027,7 +2029,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="8">
@@ -2044,7 +2046,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="8">
@@ -2061,7 +2063,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8">
@@ -2075,8 +2077,8 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:5" hidden="1">
+      <c r="A32" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="5">
@@ -2090,8 +2092,8 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5" hidden="1">
+      <c r="A33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="5">
@@ -2105,8 +2107,8 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:5" hidden="1">
+      <c r="A34" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="5">
@@ -2120,8 +2122,8 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:5" hidden="1">
+      <c r="A35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="5">
@@ -2135,8 +2137,8 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:5" hidden="1">
+      <c r="A36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="5">
@@ -2150,8 +2152,8 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:5" hidden="1">
+      <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="5">
@@ -2165,8 +2167,8 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:5" hidden="1">
+      <c r="A38" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="5">
@@ -2180,8 +2182,8 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:5" hidden="1">
+      <c r="A39" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="5">
@@ -2195,8 +2197,8 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5" hidden="1">
+      <c r="A40" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="5"/>
@@ -2204,8 +2206,8 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:5" hidden="1">
+      <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="5">
@@ -2368,7 +2370,13 @@
       <c r="E69" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E41"/>
+  <autoFilter ref="A4:E41">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Y1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>
@@ -2383,10 +2391,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2438,12 +2447,12 @@
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" thickTop="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -2456,8 +2465,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5">
@@ -2470,8 +2479,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5">
@@ -2484,8 +2493,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5">
@@ -2498,8 +2507,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5">
@@ -2512,8 +2521,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5">
@@ -2526,8 +2535,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="5">
@@ -2540,8 +2549,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5">
@@ -2554,8 +2563,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5">
@@ -2568,8 +2577,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5">
@@ -2582,8 +2591,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5">
@@ -2596,8 +2605,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:6" ht="16" hidden="1" thickTop="1">
+      <c r="A16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5">
@@ -2613,8 +2622,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5">
@@ -2627,8 +2636,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="5">
@@ -2641,8 +2650,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="5">
@@ -2655,8 +2664,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="5">
@@ -2669,8 +2678,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5">
@@ -2686,8 +2695,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="5">
@@ -2700,8 +2709,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="5">
@@ -2714,8 +2723,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5">
@@ -2728,8 +2737,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:5" ht="16" hidden="1" thickTop="1">
+      <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="5">
@@ -2742,8 +2751,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5" ht="16" thickTop="1">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="5">
@@ -2757,7 +2766,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="5">
@@ -2771,7 +2780,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="5">
@@ -2785,12 +2794,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E28"/>
+  <autoFilter ref="A4:E28">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="X4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2805,7 +2819,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2832,13 +2846,13 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="20" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="A4" s="9" t="s">
@@ -2853,12 +2867,12 @@
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" ht="16" thickTop="1">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -2874,8 +2888,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -2889,7 +2903,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5">
@@ -2902,8 +2916,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5">
@@ -2917,7 +2931,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5">
@@ -2931,7 +2945,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5">
@@ -2945,7 +2959,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5">
@@ -2958,8 +2972,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5">
@@ -2973,7 +2987,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="5">
@@ -2986,8 +3000,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5">
@@ -3000,8 +3014,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="5">
@@ -3014,8 +3028,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="5">
@@ -3032,7 +3046,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5">
@@ -3046,7 +3060,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="8">
@@ -3059,8 +3073,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -3073,8 +3087,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
@@ -3088,7 +3102,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="5">
@@ -3101,8 +3115,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="5">
@@ -3119,7 +3133,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="5">
@@ -3136,7 +3150,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="5">
@@ -3149,8 +3163,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" thickTop="1">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:5" hidden="1">
+      <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="5">
@@ -3163,8 +3177,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5" hidden="1">
+      <c r="A26" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="5">
@@ -3177,8 +3191,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:5" hidden="1">
+      <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5">
@@ -3191,8 +3205,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:5" hidden="1">
+      <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
@@ -3205,8 +3219,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:5" hidden="1">
+      <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="5">
@@ -3220,12 +3234,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="5">
@@ -3240,9 +3254,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:E31">
-    <filterColumn colId="0">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Y2"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3263,7 +3277,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3280,13 +3294,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1">
       <c r="A4" s="9" t="s">
@@ -3301,12 +3315,12 @@
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" thickTop="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -3322,7 +3336,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5">
@@ -3338,7 +3352,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5">
@@ -3354,7 +3368,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5">
@@ -3370,7 +3384,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5">
@@ -3386,7 +3400,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5">
@@ -3402,7 +3416,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5">
@@ -3418,7 +3432,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
@@ -3428,7 +3442,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
@@ -3644,7 +3658,6 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3655,11 +3668,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3674,13 +3686,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="A4" s="9" t="s">
@@ -3695,12 +3707,12 @@
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" ht="16" thickTop="1">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -3714,8 +3726,8 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" hidden="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -3729,8 +3741,8 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" hidden="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5">
@@ -3744,8 +3756,8 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" hidden="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5">
@@ -3759,8 +3771,8 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" hidden="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5">
@@ -3774,8 +3786,8 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" hidden="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5">
@@ -3789,8 +3801,8 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" hidden="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5">
@@ -3804,8 +3816,8 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" hidden="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5">
@@ -3821,8 +3833,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="5">
@@ -3838,8 +3850,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5">
@@ -3853,8 +3865,8 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" hidden="1">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="5">
@@ -3868,8 +3880,8 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" hidden="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="5">
@@ -3883,8 +3895,8 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" hidden="1">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="5">
@@ -3898,8 +3910,8 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" hidden="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="5">
@@ -3913,8 +3925,8 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" hidden="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -3930,8 +3942,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
@@ -3947,8 +3959,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="8">
@@ -3962,8 +3974,8 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" hidden="1">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="5">
@@ -3979,8 +3991,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="5">
@@ -3996,8 +4008,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="5">
@@ -4011,8 +4023,8 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" hidden="1">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="5">
@@ -4028,8 +4040,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5">
@@ -4045,8 +4057,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="5">
@@ -4062,8 +4074,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" thickTop="1">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
@@ -4078,7 +4090,7 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="5">
@@ -4093,7 +4105,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="5">
@@ -4107,8 +4119,8 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" hidden="1">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="5"/>
@@ -4201,13 +4213,7 @@
       <c r="E43" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E31">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Y2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:E31"/>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>

--- a/trunk/Tools/price-demand curve.xlsx
+++ b/trunk/Tools/price-demand curve.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="US Chips" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="24">
   <si>
     <t>X0</t>
   </si>
@@ -928,13 +928,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
@@ -944,6 +944,9 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+    </row>
     <row r="3" spans="1:6" ht="20" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>4</v>
@@ -971,7 +974,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -987,7 +990,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5">
@@ -1003,7 +1006,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5">
@@ -1019,7 +1022,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5">
@@ -1035,7 +1038,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5">
@@ -1051,7 +1054,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5">
@@ -1067,7 +1070,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="5">
@@ -1083,7 +1086,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5">
@@ -1099,7 +1102,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5">
@@ -1115,7 +1118,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5">
@@ -1133,7 +1136,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5">
@@ -1149,7 +1152,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5">
@@ -1165,7 +1168,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="5">
@@ -1183,7 +1186,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="5">
@@ -1199,7 +1202,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="5">
@@ -1215,7 +1218,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="5">
@@ -1231,7 +1234,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5">
@@ -1247,7 +1250,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="5">
@@ -1263,7 +1266,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="5">
@@ -1279,7 +1282,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11" t="s">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5">
@@ -1295,7 +1298,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="5">
@@ -1311,7 +1314,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11" t="s">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="5">
@@ -1327,7 +1330,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11" t="s">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="5">
@@ -1343,7 +1346,7 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="5">
@@ -1359,49 +1362,86 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8570</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
+        <v>90</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3520</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5">
+        <v>280</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5">
+        <v>90</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5030</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5">
+        <v>75</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4910</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1409,7 +1449,6 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1417,7 +1456,6 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1425,7 +1463,6 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1433,7 +1470,6 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1441,7 +1477,6 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1449,7 +1484,6 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1457,7 +1491,6 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1465,7 +1498,6 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1473,7 +1505,6 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1614,12 +1645,12 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A19" sqref="A19:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1628,6 +1659,9 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+    </row>
     <row r="3" spans="1:5" ht="20" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>2</v>
@@ -1871,7 +1905,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -1886,7 +1920,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
@@ -1901,7 +1935,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="8">
@@ -1916,7 +1950,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="8">
@@ -1933,7 +1967,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="8">
@@ -1948,7 +1982,7 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="5">
@@ -1963,7 +1997,7 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="5">
@@ -1980,7 +2014,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11" t="s">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="12">
@@ -1995,7 +2029,7 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="8">
@@ -2012,7 +2046,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="8">
@@ -2029,7 +2063,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="11" t="s">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="8">
@@ -2046,7 +2080,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="11" t="s">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="8">
@@ -2063,7 +2097,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="11" t="s">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="8">
@@ -2222,112 +2256,201 @@
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="5">
+        <v>165</v>
+      </c>
+      <c r="C42" s="5">
+        <v>21600</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="5">
+        <v>180</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7230</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5">
+        <v>220</v>
+      </c>
+      <c r="C44" s="5">
+        <v>26000</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="5">
+        <v>260</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="5">
+        <v>250</v>
+      </c>
+      <c r="C46" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="5">
+        <v>195</v>
+      </c>
+      <c r="C47" s="5">
+        <v>8000</v>
+      </c>
+      <c r="D47" s="5">
+        <v>6</v>
+      </c>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5">
+        <v>200</v>
+      </c>
+      <c r="C48" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D48" s="5">
+        <v>6</v>
+      </c>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5">
+        <v>230</v>
+      </c>
+      <c r="C49" s="5">
+        <v>28260</v>
+      </c>
+      <c r="D49" s="5">
+        <v>7</v>
+      </c>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="5">
+        <v>250</v>
+      </c>
+      <c r="C50" s="5">
+        <v>15000</v>
+      </c>
+      <c r="D50" s="5">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="5">
+        <v>235</v>
+      </c>
+      <c r="C51" s="5">
+        <v>15000</v>
+      </c>
+      <c r="D51" s="5">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="5">
+        <v>240</v>
+      </c>
+      <c r="C52" s="5">
+        <v>6580</v>
+      </c>
+      <c r="D52" s="5">
+        <v>8</v>
+      </c>
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2391,16 +2514,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="5"/>
+    <col min="2" max="4" width="10.83203125" style="5"/>
     <col min="5" max="5" width="15.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="6"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
@@ -2451,8 +2573,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" ht="16" thickTop="1">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -2465,8 +2587,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5">
@@ -2479,8 +2601,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5">
@@ -2493,8 +2615,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5">
@@ -2507,8 +2629,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5">
@@ -2521,8 +2643,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5">
@@ -2535,8 +2657,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="5">
@@ -2549,8 +2671,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5">
@@ -2563,8 +2685,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5">
@@ -2577,8 +2699,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5">
@@ -2591,8 +2713,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5">
@@ -2605,8 +2727,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" hidden="1" thickTop="1">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5">
@@ -2622,8 +2744,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5">
@@ -2636,8 +2758,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="5">
@@ -2650,8 +2772,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="5">
@@ -2664,8 +2786,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="5">
@@ -2678,8 +2800,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5">
@@ -2695,8 +2817,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="5">
@@ -2709,8 +2831,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="5">
@@ -2723,8 +2845,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5">
@@ -2737,8 +2859,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" hidden="1" thickTop="1">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="5">
@@ -2751,8 +2873,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" thickTop="1">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="5">
@@ -2766,7 +2888,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="5">
@@ -2780,7 +2902,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="5">
@@ -2793,14 +2915,95 @@
         <v>4</v>
       </c>
     </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5">
+        <v>83</v>
+      </c>
+      <c r="C29" s="5">
+        <v>820</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="5">
+        <v>98</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5740</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5">
+        <v>85</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2440</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5">
+        <v>110</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4160</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5">
+        <v>72</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5">
+        <v>85</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:E28">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="X4"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:E28"/>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>
@@ -2816,15 +3019,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="5"/>
+    <col min="2" max="4" width="10.83203125" style="5"/>
     <col min="5" max="5" width="15" style="5" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
   </cols>
@@ -2872,7 +3075,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" thickTop="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -2889,7 +3092,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -2917,7 +3120,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5">
@@ -2973,7 +3176,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5">
@@ -3001,7 +3204,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5">
@@ -3015,7 +3218,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="5">
@@ -3029,7 +3232,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="5">
@@ -3074,7 +3277,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -3088,7 +3291,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
@@ -3116,7 +3319,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="5">
@@ -3250,6 +3453,79 @@
       </c>
       <c r="D31" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="5">
+        <v>204</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7580</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="5">
+        <v>218</v>
+      </c>
+      <c r="C33" s="5">
+        <v>7210</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="5">
+        <v>275</v>
+      </c>
+      <c r="C34" s="7">
+        <v>6000</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5">
+        <v>240</v>
+      </c>
+      <c r="C35" s="5">
+        <v>22930</v>
+      </c>
+      <c r="D35" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="5">
+        <v>260</v>
+      </c>
+      <c r="C36" s="5">
+        <v>9930</v>
+      </c>
+      <c r="D36" s="5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3277,12 +3553,12 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
@@ -3293,6 +3569,9 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+    </row>
     <row r="3" spans="1:6" ht="20" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>4</v>
@@ -3320,7 +3599,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" thickTop="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -3336,7 +3615,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5">
@@ -3352,7 +3631,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5">
@@ -3368,7 +3647,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5">
@@ -3384,7 +3663,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5">
@@ -3400,7 +3679,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5">
@@ -3416,7 +3695,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5">
@@ -3432,140 +3711,158 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>240</v>
+      </c>
+      <c r="C12" s="5">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5">
+        <v>270</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2770</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>240</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>268</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2840</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
+    <row r="17" spans="2:6">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
+    <row r="18" spans="2:6">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
+    <row r="19" spans="2:6">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
+    <row r="20" spans="2:6">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
+    <row r="21" spans="2:6">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
+    <row r="23" spans="2:6">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
+    <row r="24" spans="2:6">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
+    <row r="25" spans="2:6">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="2:6">
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="2:6">
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="2:6">
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="2:6">
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:6">
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:6">
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="2:6">
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="6:6">
@@ -3670,13 +3967,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3685,6 +3982,9 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+    </row>
     <row r="3" spans="1:5" ht="20" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>2</v>
@@ -3712,7 +4012,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" thickTop="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -3727,7 +4027,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -3742,7 +4042,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5">
@@ -3757,7 +4057,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5">
@@ -3772,7 +4072,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5">
@@ -3787,7 +4087,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5">
@@ -3802,7 +4102,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5">
@@ -3817,7 +4117,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="5">
@@ -3834,7 +4134,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="5">
@@ -3851,7 +4151,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5">
@@ -3866,7 +4166,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="5">
@@ -3881,7 +4181,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="5">
@@ -3896,7 +4196,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="5">
@@ -3911,7 +4211,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="5">
@@ -3926,7 +4226,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -3943,7 +4243,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
@@ -3960,7 +4260,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="8">
@@ -3975,7 +4275,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="5">
@@ -3992,7 +4292,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="5">
@@ -4009,7 +4309,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="5">
@@ -4024,7 +4324,7 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="5">
@@ -4041,7 +4341,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11" t="s">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5">
@@ -4058,7 +4358,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="5">
@@ -4075,7 +4375,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
@@ -4090,7 +4390,7 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="11" t="s">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="5">
@@ -4105,7 +4405,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="11" t="s">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="5">
@@ -4120,93 +4420,152 @@
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="11" t="s">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1380</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1050</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2750</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4680</v>
+      </c>
+      <c r="D35" s="5">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="5">
+        <v>1700</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1790</v>
+      </c>
+      <c r="D36" s="5">
+        <v>7</v>
+      </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8000</v>
+      </c>
+      <c r="D37" s="5">
+        <v>8</v>
+      </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1520</v>
+      </c>
+      <c r="C38" s="5">
+        <v>990</v>
+      </c>
+      <c r="D38" s="5">
+        <v>8</v>
+      </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>

--- a/trunk/Tools/price-demand curve.xlsx
+++ b/trunk/Tools/price-demand curve.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="US Chips" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brazil Chips'!$A$4:$E$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Brazil PC'!$A$4:$E$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Europe Chips'!$A$4:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Brazil PC'!$A$4:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Europe Chips'!$A$4:$E$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Europe PC'!$A$4:$E$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Chips'!$A$4:$E$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US PC'!$A$4:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Chips'!$A$4:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US PC'!$A$4:$E$52</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'US Chips'!$D$5:$D$43</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="25">
   <si>
     <t>X0</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Area Europe</t>
+  </si>
+  <si>
+    <t>sold out as wanted</t>
   </si>
 </sst>
 </file>
@@ -928,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A1048576"/>
+    <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1442,37 +1445,82 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5">
+        <v>6520</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3890</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10240</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5">
+        <v>15450</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="5">
+        <v>96</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4720</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
     </row>
@@ -1626,7 +1674,7 @@
       <c r="F81" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E28"/>
+  <autoFilter ref="A4:E33"/>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>
@@ -1644,8 +1692,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A1048576"/>
+    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2255,7 +2303,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2318,7 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2300,7 +2348,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2347,7 +2395,7 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2377,7 +2425,7 @@
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2427,51 +2475,174 @@
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="5">
+        <v>165</v>
+      </c>
+      <c r="C53" s="5">
+        <v>13620</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="5">
+        <v>180</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5350</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="5">
+        <v>220</v>
+      </c>
+      <c r="C55" s="5">
+        <v>27000</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="5">
+        <v>245</v>
+      </c>
+      <c r="C56" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="5">
+        <v>310</v>
+      </c>
+      <c r="C57" s="7">
+        <v>6000</v>
+      </c>
+      <c r="D57" s="7">
+        <v>4</v>
+      </c>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="E58" s="5"/>
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1">
+        <v>200</v>
+      </c>
+      <c r="C58" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1">
+        <v>280</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1">
+        <v>240</v>
+      </c>
+      <c r="C60" s="1">
+        <v>27110</v>
+      </c>
+      <c r="D60" s="1">
+        <v>7</v>
+      </c>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1">
+        <v>270</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3490</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7</v>
+      </c>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
+        <v>235</v>
+      </c>
+      <c r="C62" s="1">
+        <v>22640</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8</v>
+      </c>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1">
+        <v>300</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4170</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8</v>
+      </c>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5">
@@ -2493,7 +2664,7 @@
       <c r="E69" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E41">
+  <autoFilter ref="A4:E52">
     <filterColumn colId="0">
       <filters>
         <filter val="Y1"/>
@@ -2514,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+    <sheetView topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3002,8 +3173,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5">
+        <v>83</v>
+      </c>
+      <c r="C35" s="5">
+        <v>720</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5">
+        <v>98</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5070</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5">
+        <v>87</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10150</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="5">
+        <v>96</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5590</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5">
+        <v>630</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5">
+        <v>80</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:E28"/>
+  <autoFilter ref="A4:E34"/>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>
@@ -3019,10 +3274,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D34" sqref="C34:D34"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3526,6 +3781,93 @@
       </c>
       <c r="D36" s="5">
         <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="5">
+        <v>204</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5840</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5">
+        <v>218</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4760</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5">
+        <v>300</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5">
+        <v>255</v>
+      </c>
+      <c r="C40" s="5">
+        <v>15700</v>
+      </c>
+      <c r="D40" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="5">
+        <v>275</v>
+      </c>
+      <c r="C41" s="5">
+        <v>10280</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="5">
+        <v>265</v>
+      </c>
+      <c r="C42" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D42" s="5">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3895,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3775,94 +4117,112 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>240</v>
+      </c>
+      <c r="C16" s="5">
+        <v>120</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
+        <v>268</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2160</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="1:6">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:6">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="1:6">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:6">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:6">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:6">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:6">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:6">
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="1:6">
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="1:6">
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="1:6">
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:6">
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="1:6">
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6">
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="6:6">
@@ -3965,10 +4325,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4225,7 +4586,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4242,7 +4603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4259,7 +4620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4274,7 +4635,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4291,7 +4652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4323,7 +4684,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4340,7 +4701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4357,7 +4718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4374,7 +4735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -4389,7 +4750,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -4404,7 +4765,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4434,7 +4795,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -4466,7 +4827,7 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4481,7 +4842,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -4496,7 +4857,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -4511,7 +4872,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -4526,7 +4887,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -4542,37 +4903,118 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1380</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1050</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3250</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C41" s="5">
+        <v>20550</v>
+      </c>
+      <c r="D41" s="5">
+        <v>6</v>
+      </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1600</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4000</v>
+      </c>
+      <c r="D42" s="5">
+        <v>6</v>
+      </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1600</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7000</v>
+      </c>
+      <c r="D43" s="5">
+        <v>7</v>
+      </c>
       <c r="E43" s="5"/>
     </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2210</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1490</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:E31"/>
+  <autoFilter ref="A4:E38">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Y0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>

--- a/trunk/Tools/price-demand curve.xlsx
+++ b/trunk/Tools/price-demand curve.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" tabRatio="500" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="US Chips" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>Area Europe</t>
   </si>
   <si>
-    <t>sold out as wanted</t>
+    <t>sold out, wanted</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -1692,8 +1692,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4328,8 +4328,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
